--- a/Excel Files/Scenario 1/Expected Data/TC193/Expected Sales Order.xlsx
+++ b/Excel Files/Scenario 1/Expected Data/TC193/Expected Sales Order.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="121">
   <si>
     <t>#{Label_Title}</t>
   </si>
@@ -339,28 +339,25 @@
     <t>65-6222-3711</t>
   </si>
   <si>
-    <t>TOYOTA TSUSHO VIETNAM CO.,LTD. HANOI HEAD OFFICE</t>
-  </si>
-  <si>
-    <t>SUN RED RIVER BUILDING, 7TH FLOOR</t>
-  </si>
-  <si>
-    <t>23 PHAN CHU TRINH STREET, HOAN KIEM DISTRICT</t>
+    <t>PK-CUS-TTAP</t>
+  </si>
+  <si>
+    <t>Islamabad, Pakistan</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>70100</t>
-  </si>
-  <si>
-    <t>84-439333407</t>
-  </si>
-  <si>
-    <t>84-439333404</t>
-  </si>
-  <si>
-    <t>sAB01-2311001</t>
+    <t>postal123</t>
+  </si>
+  <si>
+    <t>5678</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>sDB204-2311001</t>
   </si>
   <si>
     <t>Firm</t>
@@ -372,97 +369,55 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>20 Nov 2023 - 26 Nov 2023</t>
-  </si>
-  <si>
-    <t>T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH</t>
-  </si>
-  <si>
-    <t>Cost, Insurance and Freight Test</t>
-  </si>
-  <si>
-    <t>27 Nov ~ 03 Dec</t>
+    <t>27 Nov 2023 - 03 Dec 2023</t>
+  </si>
+  <si>
+    <t>By Invoice Date</t>
+  </si>
+  <si>
+    <t>04 Dec ~ 10 Dec</t>
   </si>
   <si>
     <t>FC Qty 1</t>
   </si>
   <si>
-    <t>scenario1220230504001</t>
-  </si>
-  <si>
-    <t>SG-TTVP:20230504-001</t>
-  </si>
-  <si>
-    <t>BN001</t>
-  </si>
-  <si>
-    <t>cAB01-2311001</t>
-  </si>
-  <si>
-    <t>VN-TTVN</t>
-  </si>
-  <si>
-    <t>MTR</t>
-  </si>
-  <si>
-    <t>CNY</t>
+    <t>s1001</t>
+  </si>
+  <si>
+    <t>SG-TTAP-s1-001</t>
+  </si>
+  <si>
+    <t>pDB204-2311001</t>
+  </si>
+  <si>
+    <t>PK-CUS-POC</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>SGD</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>scenario1220230504002</t>
-  </si>
-  <si>
-    <t>SG-TTVP:20230504-002</t>
-  </si>
-  <si>
-    <t>BN002</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
-    <t>scenario1220230504003</t>
-  </si>
-  <si>
-    <t>SG-TTVP:20230504-003</t>
-  </si>
-  <si>
-    <t>BN003</t>
+    <t>s1002</t>
+  </si>
+  <si>
+    <t>SG-TTAP-s1-002</t>
+  </si>
+  <si>
+    <t>s1005</t>
+  </si>
+  <si>
+    <t>SG-TTAP-s1-005</t>
   </si>
   <si>
     <t>PC</t>
   </si>
   <si>
-    <t>scenario1220230504004</t>
-  </si>
-  <si>
-    <t>SG-TTVP:20230504-004</t>
-  </si>
-  <si>
-    <t>BN004</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>scenario1220230504005</t>
-  </si>
-  <si>
-    <t>SG-TTVP:20230504-005</t>
-  </si>
-  <si>
-    <t>BN005</t>
-  </si>
-  <si>
-    <t>scenario1220230504006</t>
-  </si>
-  <si>
-    <t>SG-TTVP:20230504-006</t>
-  </si>
-  <si>
-    <t>BN006</t>
+    <t>Processing</t>
   </si>
   <si>
     <t>AUTHORIZATION:</t>
@@ -9757,7 +9712,9 @@
       <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -9778,7 +9735,7 @@
         <v>49</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -9800,7 +9757,7 @@
         <v>50</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -9822,7 +9779,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -9844,7 +9801,7 @@
         <v>52</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -9873,7 +9830,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -9883,7 +9840,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -9898,7 +9855,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -9907,9 +9864,7 @@
       <c r="H15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>105</v>
-      </c>
+      <c r="I15" s="30"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
@@ -9923,7 +9878,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -9932,9 +9887,7 @@
       <c r="H16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="30" t="s">
-        <v>95</v>
-      </c>
+      <c r="I16" s="30"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -9948,7 +9901,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -9969,7 +9922,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="29" t="n">
-        <v>45238.0</v>
+        <v>45250.0</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -9990,7 +9943,7 @@
         <v>61</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -10075,7 +10028,9 @@
         <v>82</v>
       </c>
       <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="U21" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="2:16" ht="25.5" customHeight="1">
@@ -10092,7 +10047,7 @@
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
       <c r="N22" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -10117,160 +10072,152 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
       <c r="N23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="2" t="n">
-        <v>45239.0</v>
+        <v>45252.0</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>45295.0</v>
+        <v>45301.0</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>45316.0</v>
+        <v>45343.0</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>45330.0</v>
+        <v>45264.0</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>45386.0</v>
+        <v>45265.0</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="F24" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="G24" s="42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H24" s="42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I24" s="42" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="J24" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="K24" s="45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L24" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="M24" s="45" t="n">
+        <v>16200.0</v>
+      </c>
+      <c r="N24" s="42" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="O24" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="44" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H24" s="44" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I24" s="44" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24" s="44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="44" t="n">
-        <v>10500.0</v>
-      </c>
-      <c r="N24" s="44" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="P24" s="44" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="Q24" s="44" t="n">
+      <c r="P24" s="42" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="Q24" s="42" t="n">
         <v>0.0</v>
       </c>
-      <c r="R24" s="44" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="S24" s="44" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="T24" s="44" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
+      <c r="R24" s="42" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="S24" s="42" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
     </row>
     <row r="25">
       <c r="B25" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>118</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D25" s="25"/>
       <c r="E25" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G25" s="42" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="H25" s="42" t="n">
         <v>10.0</v>
       </c>
       <c r="I25" s="42" t="n">
-        <v>800.0</v>
+        <v>1620.0</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="K25" s="44" t="n">
-        <v>10.5</v>
+        <v>110</v>
+      </c>
+      <c r="K25" s="45" t="n">
+        <v>10.0</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="M25" s="44" t="n">
-        <v>8400.0</v>
+        <v>111</v>
+      </c>
+      <c r="M25" s="45" t="n">
+        <v>16200.0</v>
       </c>
       <c r="N25" s="42" t="n">
         <v>1000.0</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P25" s="42" t="n">
-        <v>800.0</v>
+        <v>1620.0</v>
       </c>
       <c r="Q25" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="R25" s="42" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42" t="n">
-        <v>800.0</v>
-      </c>
+        <v>1620.0</v>
+      </c>
+      <c r="S25" s="42" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="T25" s="42"/>
       <c r="U25" s="42"/>
       <c r="V25" s="42"/>
     </row>
     <row r="26">
       <c r="B26" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>122</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D26" s="25"/>
       <c r="E26" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G26" s="42" t="n">
         <v>5.0</v>
@@ -10279,237 +10226,56 @@
         <v>10.0</v>
       </c>
       <c r="I26" s="42" t="n">
-        <v>900.0</v>
+        <v>800.0</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K26" s="44" t="n">
-        <v>10.5</v>
+        <v>117</v>
+      </c>
+      <c r="K26" s="45" t="n">
+        <v>10.0</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="M26" s="44" t="n">
-        <v>9450.0</v>
+        <v>111</v>
+      </c>
+      <c r="M26" s="45" t="n">
+        <v>8000.0</v>
       </c>
       <c r="N26" s="42" t="n">
         <v>1000.0</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P26" s="42" t="n">
-        <v>900.0</v>
+        <v>600.0</v>
       </c>
       <c r="Q26" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="R26" s="42" t="n">
-        <v>900.0</v>
+        <v>600.0</v>
       </c>
       <c r="S26" s="42" t="n">
-        <v>500.0</v>
+        <v>600.0</v>
       </c>
       <c r="T26" s="42" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H27" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I27" s="42" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="K27" s="44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="M27" s="44" t="n">
-        <v>12600.0</v>
-      </c>
-      <c r="N27" s="42" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="P27" s="42" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="Q27" s="42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R27" s="42" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="S27" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42" t="n">
         <v>200.0</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H28" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I28" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K28" s="44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="M28" s="44" t="n">
-        <v>10500.0</v>
-      </c>
-      <c r="N28" s="42" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="P28" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="Q28" s="42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R28" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="S28" s="42" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="T28" s="42" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
+      <c r="U26" s="42" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="V26" s="42" t="n">
+        <v>200.0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H29" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I29" s="42" t="n">
-        <v>1100.0</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K29" s="44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="M29" s="44" t="n">
-        <v>11550.0</v>
-      </c>
-      <c r="N29" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="O29" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="P29" s="42" t="n">
-        <v>1100.0</v>
-      </c>
-      <c r="Q29" s="42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R29" s="42" t="n">
-        <v>1100.0</v>
-      </c>
-      <c r="S29" s="42" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="T29" s="42" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="U29" s="42" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="V29" s="42"/>
+      <c r="T29" s="41" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="32">
-      <c r="T32" s="41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="T33" s="41" t="s">
-        <v>135</v>
+    <row r="30">
+      <c r="T30" s="41" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -10534,7 +10300,8 @@
     <mergeCell ref="P21:P22"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:V22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="U21:V22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
